--- a/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {RelatedPerson.identifier.exists() or RelatedPerson.name.exists() or RelatedPerson.relationship.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {identifier.exists() or name.exists() or relationship.exists()}</t>
   </si>
   <si>
     <t>role</t>

--- a/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
@@ -16892,7 +16892,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
         <v>403</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>39</v>

--- a/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -1196,19 +1196,30 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the person</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>NK1-2</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>XPN</t>
   </si>
   <si>
     <t>RelatedPerson.telecom</t>
@@ -16374,7 +16385,7 @@
         <v>39</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>369</v>
@@ -16385,9 +16396,11 @@
       <c r="L138" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M138" s="2"/>
+      <c r="M138" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N138" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16445,24 +16458,24 @@
         <v>41</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16485,19 +16498,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16546,7 +16559,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16561,18 +16574,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16598,14 +16611,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16633,10 +16646,10 @@
         <v>147</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
@@ -16654,7 +16667,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -16669,18 +16682,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16703,13 +16716,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16760,7 +16773,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -16775,7 +16788,7 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16786,7 +16799,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16809,17 +16822,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16868,7 +16881,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16883,18 +16896,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16917,17 +16930,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16976,7 +16989,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -16991,18 +17004,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17028,10 +17041,10 @@
         <v>218</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17082,7 +17095,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17097,10 +17110,10 @@
         <v>39</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>

--- a/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {identifier.exists() or name.exists() or relationship.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {identifier.exists() or name.exists() or relationship.exists()}inv-dh-relper-02:The patient reference shall at least have a reference, an identifier or a display {patient.reference.exists() or patient.identifier.exists() or patient.display.exists()}</t>
   </si>
   <si>
     <t>role</t>

--- a/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/relatedperson-dh-base-1.xlsx
@@ -600,7 +600,7 @@
     <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
